--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,556 +43,535 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>garbage</t>
+    <t>thin</t>
   </si>
   <si>
     <t>crap</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>hole</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>loose</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>inches</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>unfortunately</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>disappointment</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>rip</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>low</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>might</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>seem</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>found</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
     <t>looks</t>
   </si>
   <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>purchased</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>came</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>still</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>grandson</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>time</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -953,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,10 +940,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1022,13 +1001,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1040,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K3">
-        <v>0.8461538461538461</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1064,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1072,13 +1051,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1090,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K4">
-        <v>0.8035714285714286</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1122,13 +1101,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8823529411764706</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1140,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K5">
-        <v>0.7407407407407407</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1164,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1172,13 +1151,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1190,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K6">
-        <v>0.6774193548387096</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L6">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1214,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1243,16 +1222,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K7">
-        <v>0.65625</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1264,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1293,16 +1272,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.671875</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1314,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1322,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7931034482758621</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1340,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K9">
-        <v>0.4782608695652174</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1364,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1372,13 +1351,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7905405405405406</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C10">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1390,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K10">
-        <v>0.4459016393442623</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L10">
-        <v>544</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>544</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1414,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>676</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1422,13 +1401,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7887323943661971</v>
+        <v>0.78125</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1440,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K11">
-        <v>0.4209770114942529</v>
+        <v>0.4544708777686629</v>
       </c>
       <c r="L11">
-        <v>293</v>
+        <v>554</v>
       </c>
       <c r="M11">
-        <v>294</v>
+        <v>555</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1464,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>403</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1472,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7818181818181819</v>
+        <v>0.7718446601941747</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1490,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K12">
-        <v>0.3838174273858921</v>
+        <v>0.4024896265560166</v>
       </c>
       <c r="L12">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1514,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1522,13 +1501,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7815533980582524</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C13">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1540,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K13">
-        <v>0.3584905660377358</v>
+        <v>0.4017216642754663</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1564,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1572,13 +1551,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1590,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K14">
-        <v>0.3027522935779817</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1614,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1622,13 +1601,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7631578947368421</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1640,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K15">
-        <v>0.3012048192771085</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1664,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>116</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1672,13 +1651,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7526881720430108</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C16">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1690,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0.2813455657492355</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1714,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>84</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1722,13 +1701,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7272727272727273</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1740,31 +1719,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K17">
-        <v>0.2872340425531915</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="L17">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1772,13 +1751,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.72</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1790,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K18">
-        <v>0.2109375</v>
+        <v>0.2265625</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1814,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1822,13 +1801,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7142857142857143</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1840,31 +1819,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K19">
-        <v>0.2105263157894737</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1872,13 +1851,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6857142857142857</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1890,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="K20">
-        <v>0.2008032128514056</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1914,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>199</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1922,13 +1901,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6818181818181818</v>
+        <v>0.68</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1940,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K21">
-        <v>0.1888111888111888</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1964,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1972,13 +1951,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1990,31 +1969,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K22">
-        <v>0.1621621621621622</v>
+        <v>0.1660808435852373</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>155</v>
+        <v>949</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2022,49 +2001,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6521739130434783</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>15</v>
       </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K23">
-        <v>0.1587301587301587</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2072,13 +2051,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2090,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K24">
-        <v>0.1526315789473684</v>
+        <v>0.1619433198380567</v>
       </c>
       <c r="L24">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>966</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2122,13 +2101,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6222222222222222</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2140,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K25">
-        <v>0.144</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L25">
         <v>18</v>
@@ -2164,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2172,13 +2151,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6218487394957983</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C26">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2190,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K26">
-        <v>0.1298701298701299</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2214,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2222,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2240,31 +2219,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K27">
-        <v>0.1012658227848101</v>
+        <v>0.1197771587743733</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N27">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>142</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2272,13 +2251,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6052631578947368</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2293,28 +2272,28 @@
         <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K28">
-        <v>0.1002785515320334</v>
+        <v>0.1</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>323</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2322,13 +2301,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2340,31 +2319,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K29">
-        <v>0.09817945383615084</v>
+        <v>0.09811565951916829</v>
       </c>
       <c r="L29">
         <v>151</v>
       </c>
       <c r="M29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2372,13 +2351,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5952380952380952</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2390,31 +2369,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K30">
-        <v>0.0804953560371517</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2422,13 +2401,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2440,31 +2419,31 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>24</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
         <v>22</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31">
-        <v>0.08042895442359249</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>31</v>
-      </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>343</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2472,13 +2451,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5855072463768116</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C32">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2490,31 +2469,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K32">
-        <v>0.07874015748031496</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N32">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>234</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2522,13 +2501,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5666666666666667</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2540,31 +2519,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K33">
-        <v>0.06129032258064516</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N33">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="O33">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>291</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2572,13 +2551,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5555555555555556</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2590,31 +2569,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K34">
-        <v>0.05666666666666666</v>
+        <v>0.05862068965517241</v>
       </c>
       <c r="L34">
         <v>17</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2622,13 +2601,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5555555555555556</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2640,31 +2619,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K35">
-        <v>0.05208333333333334</v>
+        <v>0.0568561872909699</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="O35">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2672,13 +2651,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5542168674698795</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2690,31 +2669,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K36">
-        <v>0.05</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N36">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="O36">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>703</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2722,13 +2701,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5238095238095238</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2740,31 +2719,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K37">
-        <v>0.04610951008645533</v>
+        <v>0.04177545691906005</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="O37">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>662</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2772,7 +2751,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5161290322580645</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C38">
         <v>16</v>
@@ -2790,31 +2769,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K38">
-        <v>0.04322766570605188</v>
+        <v>0.03746397694524495</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N38">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>332</v>
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2822,13 +2801,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.515625</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2840,31 +2819,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K39">
-        <v>0.04251012145748988</v>
+        <v>0.03651115618661258</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="O39">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2872,13 +2851,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5118110236220472</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2890,31 +2869,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K40">
-        <v>0.02678571428571428</v>
+        <v>0.03610108303249097</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="O40">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2922,13 +2901,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5116279069767442</v>
+        <v>0.4502369668246445</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2940,7 +2919,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>116</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41">
+        <v>0.02798232695139912</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>32</v>
+      </c>
+      <c r="N41">
+        <v>0.59</v>
+      </c>
+      <c r="O41">
+        <v>0.41</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2948,13 +2951,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.4453125</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2966,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2974,25 +2977,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4909090909090909</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3000,13 +3003,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4736842105263158</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3018,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3026,13 +3029,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.453125</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C45">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3044,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3052,13 +3055,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4473684210526316</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3070,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3078,13 +3081,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4464285714285715</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3096,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3104,13 +3107,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4390243902439024</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3122,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3130,13 +3133,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3148,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3156,13 +3159,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4333333333333333</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3174,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3182,13 +3185,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4218009478672986</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C51">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3200,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3208,25 +3211,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4210526315789473</v>
+        <v>0.40625</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3234,13 +3237,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4207920792079208</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C53">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3252,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3260,13 +3263,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4146341463414634</v>
+        <v>0.4</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3278,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3286,13 +3289,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.4126984126984127</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3304,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3312,13 +3315,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.4107142857142857</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3330,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3338,13 +3341,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.4074074074074074</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3356,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3364,13 +3367,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.4054054054054054</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3382,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3390,13 +3393,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.4029850746268657</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3408,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3416,13 +3419,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3932584269662922</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="C60">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3434,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3442,13 +3445,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3770491803278688</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3460,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3468,13 +3471,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3768115942028986</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3486,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3494,13 +3497,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3760683760683761</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C63">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3520,13 +3523,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3673469387755102</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3538,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3546,13 +3549,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3648648648648649</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3564,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3572,13 +3575,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3448275862068966</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3590,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3598,13 +3601,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.3402061855670103</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C67">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3616,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3624,13 +3627,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3392857142857143</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3642,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3650,25 +3653,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3387096774193548</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3676,13 +3679,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.3333333333333333</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3694,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3702,13 +3705,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.3265306122448979</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3720,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3728,13 +3731,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.3186813186813187</v>
+        <v>0.310126582278481</v>
       </c>
       <c r="C72">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D72">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3746,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>62</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3754,13 +3757,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3144329896907216</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C73">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D73">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3772,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>133</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3780,13 +3783,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.3132911392405063</v>
+        <v>0.305</v>
       </c>
       <c r="C74">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D74">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3798,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3806,13 +3809,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.3069620253164557</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C75">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="D75">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3824,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>219</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3832,25 +3835,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.3</v>
+        <v>0.2942050520059435</v>
       </c>
       <c r="C76">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="D76">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3858,13 +3861,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2948717948717949</v>
+        <v>0.2911392405063291</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3876,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>55</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3884,13 +3887,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2857142857142857</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3902,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3910,25 +3913,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2857142857142857</v>
+        <v>0.28</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3936,13 +3939,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2833333333333333</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3954,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>43</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3962,13 +3965,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2785714285714286</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="C81">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3980,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3988,25 +3991,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2776119402985074</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C82">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>484</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4014,13 +4017,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2753623188405797</v>
+        <v>0.267515923566879</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4032,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4040,25 +4043,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2702702702702703</v>
+        <v>0.2672413793103448</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4066,13 +4069,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2676056338028169</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4084,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4092,25 +4095,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2567567567567567</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4118,25 +4121,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2523364485981308</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="C87">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4144,13 +4147,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.2474226804123711</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C88">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4162,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4170,13 +4173,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2457142857142857</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="C89">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4188,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4196,25 +4199,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2407407407407407</v>
+        <v>0.2362030905077263</v>
       </c>
       <c r="C90">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="D90">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>82</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4222,13 +4225,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2404371584699453</v>
+        <v>0.234375</v>
       </c>
       <c r="C91">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D91">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4240,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4248,13 +4251,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2372881355932203</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="C92">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D92">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4266,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4274,13 +4277,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2355072463768116</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="C93">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D93">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4292,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>211</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4300,13 +4303,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2285714285714286</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4318,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4326,25 +4329,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.2273730684326711</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="C95">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D95">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E95">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F95">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4352,25 +4355,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.2243589743589744</v>
+        <v>0.2196261682242991</v>
       </c>
       <c r="C96">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D96">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E96">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4378,13 +4381,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.21875</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C97">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4396,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4404,25 +4407,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2161383285302594</v>
+        <v>0.2126436781609195</v>
       </c>
       <c r="C98">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D98">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E98">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4430,13 +4433,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.2127659574468085</v>
+        <v>0.2021276595744681</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4448,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4456,13 +4459,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.2</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="C100">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4474,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4482,13 +4485,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1951219512195122</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D101">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4500,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4508,25 +4511,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1770833333333333</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="C102">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D102">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4534,25 +4537,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.172972972972973</v>
+        <v>0.1835616438356164</v>
       </c>
       <c r="C103">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E103">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>153</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4560,25 +4563,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1729323308270677</v>
+        <v>0.1780104712041885</v>
       </c>
       <c r="C104">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D104">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E104">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4586,25 +4589,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1705882352941177</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C105">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E105">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4612,13 +4615,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1666666666666667</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4630,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4638,13 +4641,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1666666666666667</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4656,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4664,25 +4667,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.162534435261708</v>
+        <v>0.1619433198380567</v>
       </c>
       <c r="C108">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D108">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E108">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F108">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>304</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4690,13 +4693,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1605633802816901</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="C109">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D109">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4708,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>298</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4716,25 +4719,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.16</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="C110">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4742,25 +4745,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1584158415841584</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C111">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D111">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4768,25 +4771,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1559633027522936</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C112">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D112">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>92</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4794,13 +4797,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1558441558441558</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C113">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D113">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4812,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4820,25 +4823,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1557377049180328</v>
+        <v>0.1503759398496241</v>
       </c>
       <c r="C114">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D114">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E114">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F114">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4846,13 +4849,13 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1532846715328467</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="C115">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D115">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4864,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>116</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4872,25 +4875,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1526315789473684</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C116">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D116">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E116">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4898,25 +4901,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1487179487179487</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="C117">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D117">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F117">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4924,25 +4927,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1485148514851485</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D118">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E118">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F118">
-        <v>0.83</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>86</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4950,13 +4953,13 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1470588235294118</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C119">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4968,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4976,13 +4979,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1469534050179211</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="C120">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D120">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E120">
         <v>0.02</v>
@@ -4994,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>238</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5002,25 +5005,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1401273885350318</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="C121">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D121">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E121">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5028,25 +5031,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1375</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C122">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D122">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E122">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5054,25 +5057,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.1374045801526718</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C123">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D123">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>113</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5080,25 +5083,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1351351351351351</v>
+        <v>0.1202672605790646</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D124">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E124">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>96</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5106,13 +5109,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1351351351351351</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="C125">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5124,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5132,25 +5135,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1328125</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D126">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E126">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F126">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5158,25 +5161,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1312292358803987</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C127">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D127">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E127">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F127">
-        <v>0.9299999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>523</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5184,25 +5187,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1309255079006772</v>
+        <v>0.1144859813084112</v>
       </c>
       <c r="C128">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D128">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E128">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F128">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5210,25 +5213,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.1301587301587302</v>
+        <v>0.1092715231788079</v>
       </c>
       <c r="C129">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D129">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E129">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F129">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>274</v>
+        <v>538</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5236,25 +5239,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1257142857142857</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="C130">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D130">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>153</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5262,25 +5265,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.1194379391100703</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="C131">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D131">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E131">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F131">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>376</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5288,25 +5291,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1181102362204724</v>
+        <v>0.09438775510204081</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E132">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F132">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>112</v>
+        <v>710</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5314,25 +5317,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.1013513513513514</v>
+        <v>0.07973421926910298</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>133</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5340,25 +5343,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.09898477157360407</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C134">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D134">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="E134">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F134">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>710</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5366,25 +5369,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.09722222222222222</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C135">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D135">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E135">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F135">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>195</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5392,25 +5395,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.09289617486338798</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E136">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>166</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5418,25 +5421,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.09062980030721966</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="C137">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D137">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E137">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="F137">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>592</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5444,25 +5447,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.09012875536480687</v>
+        <v>0.06181818181818182</v>
       </c>
       <c r="C138">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5470,25 +5473,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.08823529411764706</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D139">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E139">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F139">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>155</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5496,233 +5499,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.08670520231213873</v>
+        <v>0.05387931034482758</v>
       </c>
       <c r="C140">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D140">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E140">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="F140">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141">
-        <v>0.08665105386416862</v>
-      </c>
-      <c r="C141">
-        <v>37</v>
-      </c>
-      <c r="D141">
-        <v>39</v>
-      </c>
-      <c r="E141">
-        <v>0.05</v>
-      </c>
-      <c r="F141">
-        <v>0.95</v>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142">
-        <v>0.0797872340425532</v>
-      </c>
-      <c r="C142">
-        <v>15</v>
-      </c>
-      <c r="D142">
-        <v>17</v>
-      </c>
-      <c r="E142">
-        <v>0.12</v>
-      </c>
-      <c r="F142">
-        <v>0.88</v>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143">
-        <v>0.06285714285714286</v>
-      </c>
-      <c r="C143">
-        <v>22</v>
-      </c>
-      <c r="D143">
-        <v>23</v>
-      </c>
-      <c r="E143">
-        <v>0.04</v>
-      </c>
-      <c r="F143">
-        <v>0.96</v>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144">
-        <v>0.06209850107066381</v>
-      </c>
-      <c r="C144">
-        <v>29</v>
-      </c>
-      <c r="D144">
-        <v>31</v>
-      </c>
-      <c r="E144">
-        <v>0.06</v>
-      </c>
-      <c r="F144">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145">
-        <v>0.05988023952095808</v>
-      </c>
-      <c r="C145">
-        <v>30</v>
-      </c>
-      <c r="D145">
-        <v>33</v>
-      </c>
-      <c r="E145">
-        <v>0.09</v>
-      </c>
-      <c r="F145">
-        <v>0.91</v>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146">
-        <v>0.04155844155844156</v>
-      </c>
-      <c r="C146">
-        <v>16</v>
-      </c>
-      <c r="D146">
-        <v>27</v>
-      </c>
-      <c r="E146">
-        <v>0.41</v>
-      </c>
-      <c r="F146">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147">
-        <v>0.04118993135011442</v>
-      </c>
-      <c r="C147">
-        <v>18</v>
-      </c>
-      <c r="D147">
-        <v>28</v>
-      </c>
-      <c r="E147">
-        <v>0.36</v>
-      </c>
-      <c r="F147">
-        <v>0.64</v>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148">
-        <v>0.03958944281524927</v>
-      </c>
-      <c r="C148">
-        <v>27</v>
-      </c>
-      <c r="D148">
-        <v>37</v>
-      </c>
-      <c r="E148">
-        <v>0.27</v>
-      </c>
-      <c r="F148">
-        <v>0.73</v>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148">
-        <v>655</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
